--- a/test/comparison.xlsx
+++ b/test/comparison.xlsx
@@ -5,23 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\symbolic regression\ilsr\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akcijanje\nauka\moji radovi\aktivno\symbolic regression\rils-rols\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE38C97-D1E4-4B79-B1F8-836E3F3DD8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2880D17B-5DD4-4F5F-99EB-69F727AE665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuning" sheetId="4" r:id="rId1"/>
-    <sheet name="Final results" sheetId="3" r:id="rId2"/>
-    <sheet name="0.001" sheetId="10" r:id="rId3"/>
-    <sheet name="0.0005" sheetId="24" r:id="rId4"/>
-    <sheet name="0.0001" sheetId="13" r:id="rId5"/>
-    <sheet name="0.00001" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId3"/>
+    <sheet name="Final results" sheetId="3" r:id="rId4"/>
+    <sheet name="0.001" sheetId="10" r:id="rId5"/>
+    <sheet name="0.0005" sheetId="24" r:id="rId6"/>
+    <sheet name="0.0001" sheetId="13" r:id="rId7"/>
+    <sheet name="0.00001" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'0.001'!$A$1:$A$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'0.001'!$A$1:$A$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$E$229</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8970" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9793" uniqueCount="457">
   <si>
     <t>sec</t>
   </si>
@@ -1320,11 +1323,131 @@
   <si>
     <t>(-0.1085251027514*v0)+(((0.033820172395*v0)*v3)*v5)+((((1.3533924540369*v0)*pow(v1,-1.0))*pow(v2,-1.0))*pow(v4,-1.0))+((((0.0261994300076*v0)*v3)*v5)*pow(v4,-1.0))+((((-0.0041194442489*v0)*v2)*v3)*v5)+((((-0.0121314329093*v0)*v3)*v5)*log(v1))</t>
   </si>
+  <si>
+    <t>tries</t>
+  </si>
+  <si>
+    <t>impr</t>
+  </si>
+  <si>
+    <t>root_from_inc_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeMultiply'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeMinus'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeDivide'&gt;</t>
+  </si>
+  <si>
+    <t>left_from_dec_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeConstant'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodePlus'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeMultiply'&gt;</t>
+  </si>
+  <si>
+    <t>left_from_same_&lt;class</t>
+  </si>
+  <si>
+    <t>right_from_same_&lt;class</t>
+  </si>
+  <si>
+    <t>root_from_dec_&lt;class</t>
+  </si>
+  <si>
+    <t>root_from_same_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeConstant'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodePow'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>right_from_dec_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeVariable'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeVariable'&gt;</t>
+  </si>
+  <si>
+    <t>left_from_inc_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeCos'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeSqr'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeLn'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeSqrt'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeCos'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeSin'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeExp'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodePow'&gt;</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodePlus'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>right_from_inc_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeSin'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeLn'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>'rils_rols.node.NodeExp'&gt;_to_&lt;class</t>
+  </si>
+  <si>
+    <t>perc</t>
+  </si>
+  <si>
+    <t>thres</t>
+  </si>
+  <si>
+    <t>perc&gt;thres</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>minCnt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1492,7 +1615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1523,6 +1646,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,7 +1665,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1825,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C65A8E8-047D-44CA-BD2B-A4F82E47E572}">
   <dimension ref="A1:U134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I134"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,33 +2114,33 @@
       <c r="A3" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="19"/>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29"/>
       <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2032,7 +2156,7 @@
       <c r="D4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="26" t="s">
         <v>197</v>
       </c>
       <c r="F4" s="24"/>
@@ -2045,7 +2169,7 @@
       <c r="I4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="26" t="s">
         <v>197</v>
       </c>
       <c r="K4" s="24"/>
@@ -13045,7 +13169,7 @@
         <f>VLOOKUP($A134,'0.001'!$A$1:$AE$133,19, FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="E134" s="32">
+      <c r="E134" s="26">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
@@ -13065,12 +13189,12 @@
         <f>VLOOKUP($A134,'0.0005'!$A$1:$AE$133,17, FALSE)</f>
         <v>0.4</v>
       </c>
-      <c r="J134" s="32">
-        <f t="shared" ref="J134:J137" si="23">IF(AND(G134=1,H134=0),1,0)</f>
+      <c r="J134" s="26">
+        <f t="shared" ref="J134" si="23">IF(AND(G134=1,H134=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="K134" s="21">
-        <f t="shared" ref="K134:K137" si="24">IF(G134&gt;0.999,1,0)</f>
+        <f t="shared" ref="K134" si="24">IF(G134&gt;0.999,1,0)</f>
         <v>1</v>
       </c>
       <c r="L134" s="4">
@@ -13130,6 +13254,9435 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348CF366-4259-40AD-95CA-52898182D57C}">
+  <dimension ref="A1:H130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A86" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0.3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("'",A1,"',")</f>
+        <v>'strogatz_vdp2',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2.6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H65" si="0">CONCATENATE("'",A2,"',")</f>
+        <v>'feynman_I_12_5',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2.6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_39_1',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2.7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_12_1',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2.8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_III_12_43',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2.9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_34_27',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3.8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_25_13',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3.9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_29_4',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5.4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_27_18',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5.6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_14_4',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5.6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_8_31',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5.9</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_3_24',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6.4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_43_31',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>6.6</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_14_3',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>6.6</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_34_2',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_15_4',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_38_14',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_15_5',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_III_7_38',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>8.4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_34_2a',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>8.6</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_34_29a',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_18_12',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>'strogatz_glider1',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>9.9</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_37_1',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10.1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_III_15_27',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>10.4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_4_23',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>14.8</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_39_22',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>15.3</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_34_11',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>15.4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_39_11',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>15.4</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_III_21_20',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>15.5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_34_8',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>15.6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_43_16',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>15.7</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_47_23',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>15.7</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_38_3',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>15.8</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_12_4',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_8_7',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_III_17_37',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>20.9</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_III_15_14',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>21.2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_10_9',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>24.4</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_34_29b',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>25.8</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_12_2',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>26.2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_34_1',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>28.1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_43_43',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>28.3</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>'strogatz_lv2',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>29.9</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_III_13_18',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>30.3</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>'strogatz_barmag2',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>30.5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_44_4',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_6_11',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>36.6</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_27_16',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_11_19',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>40.4</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>'strogatz_barmag1',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>41.4</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_11_20',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>47.5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>'strogatz_glider2',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_24_6',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_11_3',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>108.2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_2_42',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>137.9</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_13_12',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>180.3</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_37_4',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>193.3</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_test_17',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>202</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_III_19_51',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>206.4</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_13_4',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>219.2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>'strogatz_lv1',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>236.6</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_test_18',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_I_32_5',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>305.7</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>'feynman_II_36_38',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>309.5</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H129" si="1">CONCATENATE("'",A66,"',")</f>
+        <v>'feynman_test_19',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>366.5</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_50_26',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="D68">
+        <v>427.5</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_38_12',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>428.8</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_27_6',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>512</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_III_15_12',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>520.20000000000005</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_13_17',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>763.8</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>'strogatz_vdp1',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>850.9</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_12_11',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>889.6</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_18_14',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75">
+        <v>1200</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>'strogatz_shearflow2',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1.26386E-2</v>
+      </c>
+      <c r="D76">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_48_2',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77">
+        <v>0.68298369999999997</v>
+      </c>
+      <c r="C77">
+        <v>1.1375565000000001</v>
+      </c>
+      <c r="D77">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_2',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78">
+        <v>0.99999939999999998</v>
+      </c>
+      <c r="C78">
+        <v>1.8990000000000001E-3</v>
+      </c>
+      <c r="D78">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>'strogatz_bacres1',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="C79">
+        <v>2.1359999999999999E-3</v>
+      </c>
+      <c r="D79">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>'strogatz_bacres2',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80">
+        <v>0.99959019999999998</v>
+      </c>
+      <c r="C80">
+        <v>2.49705E-2</v>
+      </c>
+      <c r="D80">
+        <v>1200.2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_7',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81">
+        <v>0.65320900000000004</v>
+      </c>
+      <c r="C81">
+        <v>0.3402094</v>
+      </c>
+      <c r="D81">
+        <v>1200.2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>'strogatz_shearflow1',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82">
+        <v>0.33341110000000002</v>
+      </c>
+      <c r="C82">
+        <v>11.6947753</v>
+      </c>
+      <c r="D82">
+        <v>1200.3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_III_9_52',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83">
+        <v>0.98491379999999995</v>
+      </c>
+      <c r="C83">
+        <v>1.9266247000000001</v>
+      </c>
+      <c r="D83">
+        <v>1200.3</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_20',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84">
+        <v>0.99188299999999996</v>
+      </c>
+      <c r="C84">
+        <v>3.8409999999999998E-3</v>
+      </c>
+      <c r="D84">
+        <v>1200.4000000000001</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_6_2',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85">
+        <v>0.91569250000000002</v>
+      </c>
+      <c r="C85">
+        <v>8.6894999999999993E-3</v>
+      </c>
+      <c r="D85">
+        <v>1200.4000000000001</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_6_15b',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0.95109460000000001</v>
+      </c>
+      <c r="C86">
+        <v>0.4072828</v>
+      </c>
+      <c r="D86">
+        <v>1200.5</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_3',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87">
+        <v>0.99993469999999995</v>
+      </c>
+      <c r="C87">
+        <v>1.24003E-2</v>
+      </c>
+      <c r="D87">
+        <v>1200.5</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>'strogatz_predprey2',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88">
+        <v>0.93131580000000003</v>
+      </c>
+      <c r="C88">
+        <v>0.17117540000000001</v>
+      </c>
+      <c r="D88">
+        <v>1200.5999999999999</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_40_1',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89">
+        <v>0.99826720000000002</v>
+      </c>
+      <c r="C89">
+        <v>9.1427800000000004E-2</v>
+      </c>
+      <c r="D89">
+        <v>1200.5999999999999</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v>'strogatz_predprey1',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="C90">
+        <v>2.77862E-2</v>
+      </c>
+      <c r="D90">
+        <v>1200.7</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_15_3x',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91">
+        <v>0.9995425</v>
+      </c>
+      <c r="C91">
+        <v>0.2531429</v>
+      </c>
+      <c r="D91">
+        <v>1200.7</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_1',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92">
+        <v>0.99413669999999998</v>
+      </c>
+      <c r="C92">
+        <v>8.7331699999999998E-2</v>
+      </c>
+      <c r="D92">
+        <v>1200.8</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_16_6',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93">
+        <v>0.47607500000000003</v>
+      </c>
+      <c r="C93">
+        <v>0.25547619999999999</v>
+      </c>
+      <c r="D93">
+        <v>1200.8</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_III_8_54',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94">
+        <v>0.98173549999999998</v>
+      </c>
+      <c r="C94">
+        <v>1.6581800000000001E-2</v>
+      </c>
+      <c r="D94">
+        <v>1200.9000000000001</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_9_18',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95">
+        <v>0.99975979999999998</v>
+      </c>
+      <c r="C95">
+        <v>0.1126648</v>
+      </c>
+      <c r="D95">
+        <v>1200.9000000000001</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_III_10_19',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96">
+        <v>0.95518840000000005</v>
+      </c>
+      <c r="C96">
+        <v>3.2540999999999998E-3</v>
+      </c>
+      <c r="D96">
+        <v>1200.9000000000001</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_13',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97">
+        <v>0.99929840000000003</v>
+      </c>
+      <c r="C97">
+        <v>6.8151500000000004E-2</v>
+      </c>
+      <c r="D97">
+        <v>1201</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_30_3',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98">
+        <v>0.98813580000000001</v>
+      </c>
+      <c r="C98">
+        <v>0.1130864</v>
+      </c>
+      <c r="D98">
+        <v>1201</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_11',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99">
+        <v>0.99795809999999996</v>
+      </c>
+      <c r="C99">
+        <v>1.2937521999999999</v>
+      </c>
+      <c r="D99">
+        <v>1201</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_16',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100">
+        <v>0.99928950000000005</v>
+      </c>
+      <c r="C100">
+        <v>0.1252828</v>
+      </c>
+      <c r="D100">
+        <v>1201.0999999999999</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_32_17',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101">
+        <v>0.99999769999999999</v>
+      </c>
+      <c r="C101">
+        <v>3.1668E-3</v>
+      </c>
+      <c r="D101">
+        <v>1201.0999999999999</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_13_34',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102">
+        <v>0.99949180000000004</v>
+      </c>
+      <c r="C102">
+        <v>1.1239300000000001E-2</v>
+      </c>
+      <c r="D102">
+        <v>1201.2</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_4',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103">
+        <v>0.99983889999999997</v>
+      </c>
+      <c r="C103">
+        <v>88.221593600000006</v>
+      </c>
+      <c r="D103">
+        <v>1201.2</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_9',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104">
+        <v>0.99998929999999997</v>
+      </c>
+      <c r="C104">
+        <v>5.2864000000000001E-3</v>
+      </c>
+      <c r="D104">
+        <v>1201.3</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_34_14',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105">
+        <v>0.99974510000000005</v>
+      </c>
+      <c r="C105">
+        <v>4.8088899999999997E-2</v>
+      </c>
+      <c r="D105">
+        <v>1201.3</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_41_16',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106">
+        <v>0.99997159999999996</v>
+      </c>
+      <c r="C106">
+        <v>4.5903999999999997E-3</v>
+      </c>
+      <c r="D106">
+        <v>1201.3</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_24_17',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107">
+        <v>0.99280829999999998</v>
+      </c>
+      <c r="C107">
+        <v>3.8160399999999997E-2</v>
+      </c>
+      <c r="D107">
+        <v>1201.3</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_8',</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108">
+        <v>0.99562220000000001</v>
+      </c>
+      <c r="C108">
+        <v>3.9776999999999998E-3</v>
+      </c>
+      <c r="D108">
+        <v>1201.4000000000001</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_6_2b',</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109">
+        <v>0.99980420000000003</v>
+      </c>
+      <c r="C109">
+        <v>4.4626699999999998E-2</v>
+      </c>
+      <c r="D109">
+        <v>1201.4000000000001</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_5',</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110">
+        <v>0.98782749999999997</v>
+      </c>
+      <c r="C110">
+        <v>0.55589869999999997</v>
+      </c>
+      <c r="D110">
+        <v>1201.5</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_35_21',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111">
+        <v>0.99926400000000004</v>
+      </c>
+      <c r="C111">
+        <v>1.01137E-2</v>
+      </c>
+      <c r="D111">
+        <v>1201.5</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_6_15a',</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112">
+        <v>0.99999890000000002</v>
+      </c>
+      <c r="C112">
+        <v>1.5486E-2</v>
+      </c>
+      <c r="D112">
+        <v>1201.5</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_12',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113">
+        <v>-1.1851634</v>
+      </c>
+      <c r="C113">
+        <v>19.4102788</v>
+      </c>
+      <c r="D113">
+        <v>1201.7</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_14',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114">
+        <v>0.9896665</v>
+      </c>
+      <c r="C114">
+        <v>4.6103100000000001E-2</v>
+      </c>
+      <c r="D114">
+        <v>1201.8</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_6',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115">
+        <v>0.97077650000000004</v>
+      </c>
+      <c r="C115">
+        <v>0.32835930000000002</v>
+      </c>
+      <c r="D115">
+        <v>1201.9000000000001</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_29_16',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>0.99991830000000004</v>
+      </c>
+      <c r="C116">
+        <v>2.8616000000000002E-3</v>
+      </c>
+      <c r="D116">
+        <v>1201.9000000000001</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_35_18',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117">
+        <v>0.99088620000000005</v>
+      </c>
+      <c r="C117">
+        <v>0.65471760000000001</v>
+      </c>
+      <c r="D117">
+        <v>1201.9000000000001</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_III_14_14',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118">
+        <v>0.99999689999999997</v>
+      </c>
+      <c r="C118">
+        <v>1.6266699999999999E-2</v>
+      </c>
+      <c r="D118">
+        <v>1201.9000000000001</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_III_4_32',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119">
+        <v>0.9999787</v>
+      </c>
+      <c r="C119">
+        <v>9.7362999999999998E-3</v>
+      </c>
+      <c r="D119">
+        <v>1202</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_15_10',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120">
+        <v>0.99287800000000004</v>
+      </c>
+      <c r="C120">
+        <v>4.1098999999999997E-3</v>
+      </c>
+      <c r="D120">
+        <v>1202.2</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_21_32',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121">
+        <v>0.99960899999999997</v>
+      </c>
+      <c r="C121">
+        <v>1.3865000000000001E-2</v>
+      </c>
+      <c r="D121">
+        <v>1202.5</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_11_27',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122">
+        <v>0.99999760000000004</v>
+      </c>
+      <c r="C122">
+        <v>1.8916E-3</v>
+      </c>
+      <c r="D122">
+        <v>1202.5999999999999</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_10_7',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123">
+        <v>0.99943899999999997</v>
+      </c>
+      <c r="C123">
+        <v>2.8643399999999999E-2</v>
+      </c>
+      <c r="D123">
+        <v>1202.5999999999999</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_15_3t',</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124">
+        <v>0.98097250000000003</v>
+      </c>
+      <c r="C124">
+        <v>0.13701969999999999</v>
+      </c>
+      <c r="D124">
+        <v>1202.5999999999999</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_8_14',</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125">
+        <v>0.9999808</v>
+      </c>
+      <c r="C125">
+        <v>1.2792999999999999E-3</v>
+      </c>
+      <c r="D125">
+        <v>1202.8</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_11_28',</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126">
+        <v>0.99999760000000004</v>
+      </c>
+      <c r="C126">
+        <v>1.8814999999999999E-3</v>
+      </c>
+      <c r="D126">
+        <v>1202.8</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_II_13_23',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>96</v>
+      </c>
+      <c r="B127">
+        <v>0.99995769999999995</v>
+      </c>
+      <c r="C127">
+        <v>3.3102399999999997E-2</v>
+      </c>
+      <c r="D127">
+        <v>1202.8</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_III_4_33',</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128">
+        <v>0.99548099999999995</v>
+      </c>
+      <c r="C128">
+        <v>8.4892200000000001E-2</v>
+      </c>
+      <c r="D128">
+        <v>1203.5</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_test_15',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129">
+        <v>0.99994369999999999</v>
+      </c>
+      <c r="C129">
+        <v>5.2570000000000004E-4</v>
+      </c>
+      <c r="D129">
+        <v>1204.7</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="1"/>
+        <v>'feynman_I_6_2a',</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>85</v>
+      </c>
+      <c r="B130">
+        <v>0.92402329999999999</v>
+      </c>
+      <c r="C130">
+        <v>0.23446420000000001</v>
+      </c>
+      <c r="D130">
+        <v>1205.0999999999999</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" ref="H130" si="2">CONCATENATE("'",A130,"',")</f>
+        <v>'feynman_I_18_4',</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E130">
+    <sortCondition ref="D1:D130"/>
+    <sortCondition descending="1" ref="E1:E130"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4612B32-C491-41B9-8406-4932FCB34808}">
+  <dimension ref="A1:O229"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1">
+        <f>SUM(H:H)</f>
+        <v>57540</v>
+      </c>
+      <c r="J1" t="s">
+        <v>455</v>
+      </c>
+      <c r="K1">
+        <f>SUM(A:A)</f>
+        <v>100000</v>
+      </c>
+      <c r="L1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M1">
+        <v>1E-3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>456</v>
+      </c>
+      <c r="O1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5223</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="33">
+        <f>B2/A2</f>
+        <v>4.0206777713957496E-3</v>
+      </c>
+      <c r="G2">
+        <f>IF(OR(F2&gt;$M$1, A2&lt;$O$1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>G2*A2</f>
+        <v>5223</v>
+      </c>
+      <c r="I2">
+        <f>I1/K1</f>
+        <v>0.57540000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5223</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F3" s="33">
+        <f t="shared" ref="F3:F66" si="0">B3/A3</f>
+        <v>1.1487650775416428E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">IF(OR(F3&gt;$M$1, A3&lt;$O$1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">G3*A3</f>
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3301</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="33">
+        <f t="shared" si="0"/>
+        <v>9.0881551045137842E-4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3110</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" si="0"/>
+        <v>3.2154340836012862E-4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3110</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3086</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="0"/>
+        <v>3.2404406999351912E-4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3086</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2713</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="0"/>
+        <v>4.7917434574272022E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2713</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="0"/>
+        <v>1.9535569480280134E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2659</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1282437006393381E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2659</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="0"/>
+        <v>3.7608123354644602E-4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2238</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="0"/>
+        <v>2.2341376228775692E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2061</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>431</v>
+      </c>
+      <c r="D14" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="0"/>
+        <v>9.2188258127122759E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1828</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="0"/>
+        <v>2.1881838074398249E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1828</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="0"/>
+        <v>1.6411378555798686E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1784</v>
+      </c>
+      <c r="B17">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" s="33">
+        <f t="shared" si="0"/>
+        <v>2.6345291479820628E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1784</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" t="s">
+        <v>432</v>
+      </c>
+      <c r="E18" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="0"/>
+        <v>1.6816143497757848E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1630</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>429</v>
+      </c>
+      <c r="D19" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="0"/>
+        <v>1.8404907975460123E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1630</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D20" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1618</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D21" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1618</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D22" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="0"/>
+        <v>1.2360939431396785E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1592</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="0"/>
+        <v>6.2814070351758795E-4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1592</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1560</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" t="s">
+        <v>425</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1444</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" t="s">
+        <v>425</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1391</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>428</v>
+      </c>
+      <c r="D27" t="s">
+        <v>433</v>
+      </c>
+      <c r="E27" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1391</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>428</v>
+      </c>
+      <c r="D28" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" t="s">
+        <v>426</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" si="0"/>
+        <v>7.1890726096333572E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1052</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" t="s">
+        <v>438</v>
+      </c>
+      <c r="E29" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="0"/>
+        <v>9.5057034220532319E-4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1052</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>437</v>
+      </c>
+      <c r="D30" t="s">
+        <v>438</v>
+      </c>
+      <c r="E30" t="s">
+        <v>422</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1002</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D31" t="s">
+        <v>446</v>
+      </c>
+      <c r="E31" t="s">
+        <v>422</v>
+      </c>
+      <c r="F31" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1002</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>429</v>
+      </c>
+      <c r="D32" t="s">
+        <v>446</v>
+      </c>
+      <c r="E32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" si="0"/>
+        <v>2.9940119760479044E-3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>992</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D33" t="s">
+        <v>421</v>
+      </c>
+      <c r="E33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="0"/>
+        <v>2.0161290322580645E-3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>981</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" t="s">
+        <v>433</v>
+      </c>
+      <c r="E34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F34" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>944</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" t="s">
+        <v>432</v>
+      </c>
+      <c r="E35" t="s">
+        <v>427</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="0"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>944</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>420</v>
+      </c>
+      <c r="D36" t="s">
+        <v>432</v>
+      </c>
+      <c r="E36" t="s">
+        <v>426</v>
+      </c>
+      <c r="F36" s="33">
+        <f t="shared" si="0"/>
+        <v>2.6483050847457626E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>939</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>424</v>
+      </c>
+      <c r="D37" t="s">
+        <v>421</v>
+      </c>
+      <c r="E37" t="s">
+        <v>427</v>
+      </c>
+      <c r="F37" s="33">
+        <f t="shared" si="0"/>
+        <v>3.1948881789137379E-3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>924</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>434</v>
+      </c>
+      <c r="D38" t="s">
+        <v>421</v>
+      </c>
+      <c r="E38" t="s">
+        <v>426</v>
+      </c>
+      <c r="F38" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0822510822510823E-3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>880</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>434</v>
+      </c>
+      <c r="D39" t="s">
+        <v>421</v>
+      </c>
+      <c r="E39" t="s">
+        <v>427</v>
+      </c>
+      <c r="F39" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>839</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>424</v>
+      </c>
+      <c r="D40" t="s">
+        <v>421</v>
+      </c>
+      <c r="E40" t="s">
+        <v>436</v>
+      </c>
+      <c r="F40" s="33">
+        <f t="shared" si="0"/>
+        <v>4.1716328963051254E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>719</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>434</v>
+      </c>
+      <c r="D41" t="s">
+        <v>421</v>
+      </c>
+      <c r="E41" t="s">
+        <v>436</v>
+      </c>
+      <c r="F41" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3908205841446453E-3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>680</v>
+      </c>
+      <c r="B42">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>420</v>
+      </c>
+      <c r="D42" t="s">
+        <v>435</v>
+      </c>
+      <c r="E42" t="s">
+        <v>422</v>
+      </c>
+      <c r="F42" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4705882352941183E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>680</v>
+      </c>
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D43" t="s">
+        <v>435</v>
+      </c>
+      <c r="E43" t="s">
+        <v>423</v>
+      </c>
+      <c r="F43" s="33">
+        <f t="shared" si="0"/>
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>636</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D44" t="s">
+        <v>446</v>
+      </c>
+      <c r="E44" t="s">
+        <v>423</v>
+      </c>
+      <c r="F44" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>636</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>428</v>
+      </c>
+      <c r="D45" t="s">
+        <v>446</v>
+      </c>
+      <c r="E45" t="s">
+        <v>422</v>
+      </c>
+      <c r="F45" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>628</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>430</v>
+      </c>
+      <c r="D46" t="s">
+        <v>421</v>
+      </c>
+      <c r="E46" t="s">
+        <v>436</v>
+      </c>
+      <c r="F46" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5923566878980893E-3</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>574</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D47" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" t="s">
+        <v>425</v>
+      </c>
+      <c r="F47" s="33">
+        <f t="shared" si="0"/>
+        <v>3.4843205574912892E-3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>548</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>437</v>
+      </c>
+      <c r="D48" t="s">
+        <v>438</v>
+      </c>
+      <c r="E48" t="s">
+        <v>426</v>
+      </c>
+      <c r="F48" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>548</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
+      <c r="D49" t="s">
+        <v>438</v>
+      </c>
+      <c r="E49" t="s">
+        <v>427</v>
+      </c>
+      <c r="F49" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>522</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>429</v>
+      </c>
+      <c r="D50" t="s">
+        <v>446</v>
+      </c>
+      <c r="E50" t="s">
+        <v>427</v>
+      </c>
+      <c r="F50" s="33">
+        <f t="shared" si="0"/>
+        <v>3.8314176245210726E-3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>522</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>429</v>
+      </c>
+      <c r="D51" t="s">
+        <v>446</v>
+      </c>
+      <c r="E51" t="s">
+        <v>426</v>
+      </c>
+      <c r="F51" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>505</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" t="s">
+        <v>433</v>
+      </c>
+      <c r="E52" t="s">
+        <v>436</v>
+      </c>
+      <c r="F52" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>444</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>420</v>
+      </c>
+      <c r="D53" t="s">
+        <v>438</v>
+      </c>
+      <c r="E53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F53" s="33">
+        <f t="shared" si="0"/>
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>444</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>420</v>
+      </c>
+      <c r="D54" t="s">
+        <v>438</v>
+      </c>
+      <c r="E54" t="s">
+        <v>422</v>
+      </c>
+      <c r="F54" s="33">
+        <f t="shared" si="0"/>
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>429</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" t="s">
+        <v>446</v>
+      </c>
+      <c r="E55" t="s">
+        <v>422</v>
+      </c>
+      <c r="F55" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>429</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>424</v>
+      </c>
+      <c r="D56" t="s">
+        <v>446</v>
+      </c>
+      <c r="E56" t="s">
+        <v>423</v>
+      </c>
+      <c r="F56" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>363</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D57" t="s">
+        <v>435</v>
+      </c>
+      <c r="E57" t="s">
+        <v>426</v>
+      </c>
+      <c r="F57" s="33">
+        <f t="shared" si="0"/>
+        <v>2.2038567493112948E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>363</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>420</v>
+      </c>
+      <c r="D58" t="s">
+        <v>435</v>
+      </c>
+      <c r="E58" t="s">
+        <v>427</v>
+      </c>
+      <c r="F58" s="33">
+        <f t="shared" si="0"/>
+        <v>5.5096418732782371E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>344</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>434</v>
+      </c>
+      <c r="D59" t="s">
+        <v>446</v>
+      </c>
+      <c r="E59" t="s">
+        <v>425</v>
+      </c>
+      <c r="F59" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>339</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>428</v>
+      </c>
+      <c r="D60" t="s">
+        <v>446</v>
+      </c>
+      <c r="E60" t="s">
+        <v>427</v>
+      </c>
+      <c r="F60" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>339</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>428</v>
+      </c>
+      <c r="D61" t="s">
+        <v>446</v>
+      </c>
+      <c r="E61" t="s">
+        <v>426</v>
+      </c>
+      <c r="F61" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>329</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>424</v>
+      </c>
+      <c r="D62" t="s">
+        <v>438</v>
+      </c>
+      <c r="E62" t="s">
+        <v>425</v>
+      </c>
+      <c r="F62" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>320</v>
+      </c>
+      <c r="B63">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>431</v>
+      </c>
+      <c r="D63" t="s">
+        <v>432</v>
+      </c>
+      <c r="E63" t="s">
+        <v>436</v>
+      </c>
+      <c r="F63" s="33">
+        <f t="shared" si="0"/>
+        <v>0.10625</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>276</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" t="s">
+        <v>435</v>
+      </c>
+      <c r="E64" t="s">
+        <v>425</v>
+      </c>
+      <c r="F64" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>273</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>434</v>
+      </c>
+      <c r="D65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E65" t="s">
+        <v>441</v>
+      </c>
+      <c r="F65" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>273</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>434</v>
+      </c>
+      <c r="D66" t="s">
+        <v>421</v>
+      </c>
+      <c r="E66" t="s">
+        <v>439</v>
+      </c>
+      <c r="F66" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>273</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>434</v>
+      </c>
+      <c r="D67" t="s">
+        <v>421</v>
+      </c>
+      <c r="E67" t="s">
+        <v>440</v>
+      </c>
+      <c r="F67" s="33">
+        <f t="shared" ref="F67:F130" si="3">B67/A67</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="4">IF(OR(F67&gt;$M$1, A67&lt;$O$1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="5">G67*A67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>269</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" t="s">
+        <v>421</v>
+      </c>
+      <c r="E68" t="s">
+        <v>443</v>
+      </c>
+      <c r="F68" s="33">
+        <f t="shared" si="3"/>
+        <v>7.4349442379182153E-3</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>268</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>424</v>
+      </c>
+      <c r="D69" t="s">
+        <v>421</v>
+      </c>
+      <c r="E69" t="s">
+        <v>442</v>
+      </c>
+      <c r="F69" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>268</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>424</v>
+      </c>
+      <c r="D70" t="s">
+        <v>421</v>
+      </c>
+      <c r="E70" t="s">
+        <v>443</v>
+      </c>
+      <c r="F70" s="33">
+        <f t="shared" si="3"/>
+        <v>3.7313432835820895E-3</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>268</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D71" t="s">
+        <v>421</v>
+      </c>
+      <c r="E71" t="s">
+        <v>439</v>
+      </c>
+      <c r="F71" s="33">
+        <f t="shared" si="3"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>263</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" t="s">
+        <v>442</v>
+      </c>
+      <c r="F72" s="33">
+        <f t="shared" si="3"/>
+        <v>3.8022813688212928E-3</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>258</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D73" t="s">
+        <v>421</v>
+      </c>
+      <c r="E73" t="s">
+        <v>440</v>
+      </c>
+      <c r="F73" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>258</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>424</v>
+      </c>
+      <c r="D74" t="s">
+        <v>421</v>
+      </c>
+      <c r="E74" t="s">
+        <v>441</v>
+      </c>
+      <c r="F74" s="33">
+        <f t="shared" si="3"/>
+        <v>7.7519379844961239E-3</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>252</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>430</v>
+      </c>
+      <c r="D75" t="s">
+        <v>421</v>
+      </c>
+      <c r="E75" t="s">
+        <v>427</v>
+      </c>
+      <c r="F75" s="33">
+        <f t="shared" si="3"/>
+        <v>3.968253968253968E-3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>250</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>424</v>
+      </c>
+      <c r="D76" t="s">
+        <v>421</v>
+      </c>
+      <c r="E76" t="s">
+        <v>444</v>
+      </c>
+      <c r="F76" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>230</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>420</v>
+      </c>
+      <c r="D77" t="s">
+        <v>438</v>
+      </c>
+      <c r="E77" t="s">
+        <v>426</v>
+      </c>
+      <c r="F77" s="33">
+        <f t="shared" si="3"/>
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>230</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>420</v>
+      </c>
+      <c r="D78" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" t="s">
+        <v>427</v>
+      </c>
+      <c r="F78" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>229</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>424</v>
+      </c>
+      <c r="D79" t="s">
+        <v>446</v>
+      </c>
+      <c r="E79" t="s">
+        <v>426</v>
+      </c>
+      <c r="F79" s="33">
+        <f t="shared" si="3"/>
+        <v>8.7336244541484712E-3</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>228</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>424</v>
+      </c>
+      <c r="D80" t="s">
+        <v>446</v>
+      </c>
+      <c r="E80" t="s">
+        <v>427</v>
+      </c>
+      <c r="F80" s="33">
+        <f t="shared" si="3"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>203</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>431</v>
+      </c>
+      <c r="D81" t="s">
+        <v>421</v>
+      </c>
+      <c r="E81" t="s">
+        <v>426</v>
+      </c>
+      <c r="F81" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>203</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>431</v>
+      </c>
+      <c r="D82" t="s">
+        <v>421</v>
+      </c>
+      <c r="E82" t="s">
+        <v>423</v>
+      </c>
+      <c r="F82" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>203</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>420</v>
+      </c>
+      <c r="D83" t="s">
+        <v>421</v>
+      </c>
+      <c r="E83" t="s">
+        <v>439</v>
+      </c>
+      <c r="F83" s="33">
+        <f t="shared" si="3"/>
+        <v>2.4630541871921183E-2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>203</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>431</v>
+      </c>
+      <c r="D84" t="s">
+        <v>421</v>
+      </c>
+      <c r="E84" t="s">
+        <v>422</v>
+      </c>
+      <c r="F84" s="33">
+        <f t="shared" si="3"/>
+        <v>4.9261083743842365E-3</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>203</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>420</v>
+      </c>
+      <c r="D85" t="s">
+        <v>421</v>
+      </c>
+      <c r="E85" t="s">
+        <v>440</v>
+      </c>
+      <c r="F85" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>203</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>420</v>
+      </c>
+      <c r="D86" t="s">
+        <v>421</v>
+      </c>
+      <c r="E86" t="s">
+        <v>441</v>
+      </c>
+      <c r="F86" s="33">
+        <f t="shared" si="3"/>
+        <v>4.9261083743842365E-3</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>180</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>434</v>
+      </c>
+      <c r="D87" t="s">
+        <v>421</v>
+      </c>
+      <c r="E87" t="s">
+        <v>444</v>
+      </c>
+      <c r="F87" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>169</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" t="s">
+        <v>433</v>
+      </c>
+      <c r="E88" t="s">
+        <v>440</v>
+      </c>
+      <c r="F88" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>168</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>434</v>
+      </c>
+      <c r="D89" t="s">
+        <v>446</v>
+      </c>
+      <c r="E89" t="s">
+        <v>436</v>
+      </c>
+      <c r="F89" s="33">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>167</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>424</v>
+      </c>
+      <c r="D90" t="s">
+        <v>433</v>
+      </c>
+      <c r="E90" t="s">
+        <v>443</v>
+      </c>
+      <c r="F90" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>167</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>424</v>
+      </c>
+      <c r="D91" t="s">
+        <v>433</v>
+      </c>
+      <c r="E91" t="s">
+        <v>441</v>
+      </c>
+      <c r="F91" s="33">
+        <f t="shared" si="3"/>
+        <v>5.9880239520958087E-3</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>167</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>424</v>
+      </c>
+      <c r="D92" t="s">
+        <v>433</v>
+      </c>
+      <c r="E92" t="s">
+        <v>442</v>
+      </c>
+      <c r="F92" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>167</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>424</v>
+      </c>
+      <c r="D93" t="s">
+        <v>433</v>
+      </c>
+      <c r="E93" t="s">
+        <v>439</v>
+      </c>
+      <c r="F93" s="33">
+        <f t="shared" si="3"/>
+        <v>1.7964071856287425E-2</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>167</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>424</v>
+      </c>
+      <c r="D94" t="s">
+        <v>446</v>
+      </c>
+      <c r="E94" t="s">
+        <v>436</v>
+      </c>
+      <c r="F94" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>166</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>447</v>
+      </c>
+      <c r="D95" t="s">
+        <v>421</v>
+      </c>
+      <c r="E95" t="s">
+        <v>422</v>
+      </c>
+      <c r="F95" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>166</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>447</v>
+      </c>
+      <c r="D96" t="s">
+        <v>421</v>
+      </c>
+      <c r="E96" t="s">
+        <v>423</v>
+      </c>
+      <c r="F96" s="33">
+        <f t="shared" si="3"/>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>164</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>430</v>
+      </c>
+      <c r="D97" t="s">
+        <v>421</v>
+      </c>
+      <c r="E97" t="s">
+        <v>445</v>
+      </c>
+      <c r="F97" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>150</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>420</v>
+      </c>
+      <c r="D98" t="s">
+        <v>421</v>
+      </c>
+      <c r="E98" t="s">
+        <v>442</v>
+      </c>
+      <c r="F98" s="33">
+        <f t="shared" si="3"/>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>150</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>420</v>
+      </c>
+      <c r="D99" t="s">
+        <v>421</v>
+      </c>
+      <c r="E99" t="s">
+        <v>443</v>
+      </c>
+      <c r="F99" s="33">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>135</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>424</v>
+      </c>
+      <c r="D100" t="s">
+        <v>438</v>
+      </c>
+      <c r="E100" t="s">
+        <v>436</v>
+      </c>
+      <c r="F100" s="33">
+        <f t="shared" si="3"/>
+        <v>7.4074074074074077E-3</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>132</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>437</v>
+      </c>
+      <c r="D101" t="s">
+        <v>448</v>
+      </c>
+      <c r="E101" t="s">
+        <v>423</v>
+      </c>
+      <c r="F101" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>132</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>437</v>
+      </c>
+      <c r="D102" t="s">
+        <v>448</v>
+      </c>
+      <c r="E102" t="s">
+        <v>422</v>
+      </c>
+      <c r="F102" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>116</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>447</v>
+      </c>
+      <c r="D103" t="s">
+        <v>421</v>
+      </c>
+      <c r="E103" t="s">
+        <v>426</v>
+      </c>
+      <c r="F103" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>116</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>447</v>
+      </c>
+      <c r="D104" t="s">
+        <v>421</v>
+      </c>
+      <c r="E104" t="s">
+        <v>427</v>
+      </c>
+      <c r="F104" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>116</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>430</v>
+      </c>
+      <c r="D105" t="s">
+        <v>438</v>
+      </c>
+      <c r="E105" t="s">
+        <v>425</v>
+      </c>
+      <c r="F105" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>114</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>434</v>
+      </c>
+      <c r="D106" t="s">
+        <v>446</v>
+      </c>
+      <c r="E106" t="s">
+        <v>422</v>
+      </c>
+      <c r="F106" s="33">
+        <f t="shared" si="3"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>114</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>434</v>
+      </c>
+      <c r="D107" t="s">
+        <v>446</v>
+      </c>
+      <c r="E107" t="s">
+        <v>423</v>
+      </c>
+      <c r="F107" s="33">
+        <f t="shared" si="3"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>434</v>
+      </c>
+      <c r="D108" t="s">
+        <v>421</v>
+      </c>
+      <c r="E108" t="s">
+        <v>445</v>
+      </c>
+      <c r="F108" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>104</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>420</v>
+      </c>
+      <c r="D109" t="s">
+        <v>432</v>
+      </c>
+      <c r="E109" t="s">
+        <v>442</v>
+      </c>
+      <c r="F109" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>104</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>420</v>
+      </c>
+      <c r="D110" t="s">
+        <v>432</v>
+      </c>
+      <c r="E110" t="s">
+        <v>439</v>
+      </c>
+      <c r="F110" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>104</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>420</v>
+      </c>
+      <c r="D111" t="s">
+        <v>432</v>
+      </c>
+      <c r="E111" t="s">
+        <v>444</v>
+      </c>
+      <c r="F111" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>104</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>420</v>
+      </c>
+      <c r="D112" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112" t="s">
+        <v>443</v>
+      </c>
+      <c r="F112" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>97</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>420</v>
+      </c>
+      <c r="D113" t="s">
+        <v>433</v>
+      </c>
+      <c r="E113" t="s">
+        <v>423</v>
+      </c>
+      <c r="F113" s="33">
+        <f t="shared" si="3"/>
+        <v>4.1237113402061855E-2</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>97</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>420</v>
+      </c>
+      <c r="D114" t="s">
+        <v>433</v>
+      </c>
+      <c r="E114" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114" s="33">
+        <f t="shared" si="3"/>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>87</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>431</v>
+      </c>
+      <c r="D115" t="s">
+        <v>435</v>
+      </c>
+      <c r="E115" t="s">
+        <v>436</v>
+      </c>
+      <c r="F115" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>80</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>437</v>
+      </c>
+      <c r="D116" t="s">
+        <v>421</v>
+      </c>
+      <c r="E116" t="s">
+        <v>423</v>
+      </c>
+      <c r="F116" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>80</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>437</v>
+      </c>
+      <c r="D117" t="s">
+        <v>421</v>
+      </c>
+      <c r="E117" t="s">
+        <v>422</v>
+      </c>
+      <c r="F117" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>79</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>424</v>
+      </c>
+      <c r="D118" t="s">
+        <v>448</v>
+      </c>
+      <c r="E118" t="s">
+        <v>425</v>
+      </c>
+      <c r="F118" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>73</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>434</v>
+      </c>
+      <c r="D119" t="s">
+        <v>446</v>
+      </c>
+      <c r="E119" t="s">
+        <v>426</v>
+      </c>
+      <c r="F119" s="33">
+        <f t="shared" si="3"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>70</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>424</v>
+      </c>
+      <c r="D120" t="s">
+        <v>438</v>
+      </c>
+      <c r="E120" t="s">
+        <v>426</v>
+      </c>
+      <c r="F120" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>70</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>437</v>
+      </c>
+      <c r="D121" t="s">
+        <v>448</v>
+      </c>
+      <c r="E121" t="s">
+        <v>426</v>
+      </c>
+      <c r="F121" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>70</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>437</v>
+      </c>
+      <c r="D122" t="s">
+        <v>448</v>
+      </c>
+      <c r="E122" t="s">
+        <v>427</v>
+      </c>
+      <c r="F122" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>69</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>434</v>
+      </c>
+      <c r="D123" t="s">
+        <v>446</v>
+      </c>
+      <c r="E123" t="s">
+        <v>441</v>
+      </c>
+      <c r="F123" s="33">
+        <f t="shared" si="3"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>69</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>434</v>
+      </c>
+      <c r="D124" t="s">
+        <v>446</v>
+      </c>
+      <c r="E124" t="s">
+        <v>439</v>
+      </c>
+      <c r="F124" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8985507246376812E-2</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>68</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>434</v>
+      </c>
+      <c r="D125" t="s">
+        <v>446</v>
+      </c>
+      <c r="E125" t="s">
+        <v>442</v>
+      </c>
+      <c r="F125" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>67</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>434</v>
+      </c>
+      <c r="D126" t="s">
+        <v>446</v>
+      </c>
+      <c r="E126" t="s">
+        <v>443</v>
+      </c>
+      <c r="F126" s="33">
+        <f t="shared" si="3"/>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>66</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>437</v>
+      </c>
+      <c r="D127" t="s">
+        <v>421</v>
+      </c>
+      <c r="E127" t="s">
+        <v>426</v>
+      </c>
+      <c r="F127" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>66</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>437</v>
+      </c>
+      <c r="D128" t="s">
+        <v>421</v>
+      </c>
+      <c r="E128" t="s">
+        <v>427</v>
+      </c>
+      <c r="F128" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>64</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>420</v>
+      </c>
+      <c r="D129" t="s">
+        <v>432</v>
+      </c>
+      <c r="E129" t="s">
+        <v>440</v>
+      </c>
+      <c r="F129" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>64</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>420</v>
+      </c>
+      <c r="D130" t="s">
+        <v>432</v>
+      </c>
+      <c r="E130" t="s">
+        <v>441</v>
+      </c>
+      <c r="F130" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>64</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>424</v>
+      </c>
+      <c r="D131" t="s">
+        <v>446</v>
+      </c>
+      <c r="E131" t="s">
+        <v>442</v>
+      </c>
+      <c r="F131" s="33">
+        <f t="shared" ref="F131:F194" si="6">B131/A131</f>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="7">IF(OR(F131&gt;$M$1, A131&lt;$O$1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="8">G131*A131</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>64</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>424</v>
+      </c>
+      <c r="D132" t="s">
+        <v>446</v>
+      </c>
+      <c r="E132" t="s">
+        <v>443</v>
+      </c>
+      <c r="F132" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>64</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>424</v>
+      </c>
+      <c r="D133" t="s">
+        <v>446</v>
+      </c>
+      <c r="E133" t="s">
+        <v>439</v>
+      </c>
+      <c r="F133" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>63</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>434</v>
+      </c>
+      <c r="D134" t="s">
+        <v>446</v>
+      </c>
+      <c r="E134" t="s">
+        <v>440</v>
+      </c>
+      <c r="F134" s="33">
+        <f t="shared" si="6"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>62</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>424</v>
+      </c>
+      <c r="D135" t="s">
+        <v>446</v>
+      </c>
+      <c r="E135" t="s">
+        <v>440</v>
+      </c>
+      <c r="F135" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>62</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>424</v>
+      </c>
+      <c r="D136" t="s">
+        <v>446</v>
+      </c>
+      <c r="E136" t="s">
+        <v>441</v>
+      </c>
+      <c r="F136" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>61</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137" t="s">
+        <v>421</v>
+      </c>
+      <c r="E137" t="s">
+        <v>444</v>
+      </c>
+      <c r="F137" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>61</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>424</v>
+      </c>
+      <c r="D138" t="s">
+        <v>446</v>
+      </c>
+      <c r="E138" t="s">
+        <v>444</v>
+      </c>
+      <c r="F138" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>59</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>434</v>
+      </c>
+      <c r="D139" t="s">
+        <v>446</v>
+      </c>
+      <c r="E139" t="s">
+        <v>427</v>
+      </c>
+      <c r="F139" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>58</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>424</v>
+      </c>
+      <c r="D140" t="s">
+        <v>438</v>
+      </c>
+      <c r="E140" t="s">
+        <v>445</v>
+      </c>
+      <c r="F140" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>54</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>447</v>
+      </c>
+      <c r="D141" t="s">
+        <v>446</v>
+      </c>
+      <c r="E141" t="s">
+        <v>423</v>
+      </c>
+      <c r="F141" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>54</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>447</v>
+      </c>
+      <c r="D142" t="s">
+        <v>446</v>
+      </c>
+      <c r="E142" t="s">
+        <v>422</v>
+      </c>
+      <c r="F142" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>51</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>420</v>
+      </c>
+      <c r="D143" t="s">
+        <v>433</v>
+      </c>
+      <c r="E143" t="s">
+        <v>426</v>
+      </c>
+      <c r="F143" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>51</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>420</v>
+      </c>
+      <c r="D144" t="s">
+        <v>433</v>
+      </c>
+      <c r="E144" t="s">
+        <v>427</v>
+      </c>
+      <c r="F144" s="33">
+        <f t="shared" si="6"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>50</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>430</v>
+      </c>
+      <c r="D145" t="s">
+        <v>421</v>
+      </c>
+      <c r="E145" t="s">
+        <v>426</v>
+      </c>
+      <c r="F145" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>50</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>437</v>
+      </c>
+      <c r="D146" t="s">
+        <v>433</v>
+      </c>
+      <c r="E146" t="s">
+        <v>423</v>
+      </c>
+      <c r="F146" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>50</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>437</v>
+      </c>
+      <c r="D147" t="s">
+        <v>433</v>
+      </c>
+      <c r="E147" t="s">
+        <v>422</v>
+      </c>
+      <c r="F147" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>49</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>430</v>
+      </c>
+      <c r="D148" t="s">
+        <v>438</v>
+      </c>
+      <c r="E148" t="s">
+        <v>436</v>
+      </c>
+      <c r="F148" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>47</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>437</v>
+      </c>
+      <c r="D149" t="s">
+        <v>433</v>
+      </c>
+      <c r="E149" t="s">
+        <v>427</v>
+      </c>
+      <c r="F149" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>47</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>437</v>
+      </c>
+      <c r="D150" t="s">
+        <v>433</v>
+      </c>
+      <c r="E150" t="s">
+        <v>426</v>
+      </c>
+      <c r="F150" s="33">
+        <f t="shared" si="6"/>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>46</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>420</v>
+      </c>
+      <c r="D151" t="s">
+        <v>435</v>
+      </c>
+      <c r="E151" t="s">
+        <v>441</v>
+      </c>
+      <c r="F151" s="33">
+        <f t="shared" si="6"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>46</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>420</v>
+      </c>
+      <c r="D152" t="s">
+        <v>435</v>
+      </c>
+      <c r="E152" t="s">
+        <v>444</v>
+      </c>
+      <c r="F152" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>46</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>420</v>
+      </c>
+      <c r="D153" t="s">
+        <v>435</v>
+      </c>
+      <c r="E153" t="s">
+        <v>442</v>
+      </c>
+      <c r="F153" s="33">
+        <f t="shared" si="6"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>46</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154" t="s">
+        <v>435</v>
+      </c>
+      <c r="E154" t="s">
+        <v>439</v>
+      </c>
+      <c r="F154" s="33">
+        <f t="shared" si="6"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>46</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>420</v>
+      </c>
+      <c r="D155" t="s">
+        <v>435</v>
+      </c>
+      <c r="E155" t="s">
+        <v>443</v>
+      </c>
+      <c r="F155" s="33">
+        <f t="shared" si="6"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>46</v>
+      </c>
+      <c r="B156">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>420</v>
+      </c>
+      <c r="D156" t="s">
+        <v>435</v>
+      </c>
+      <c r="E156" t="s">
+        <v>440</v>
+      </c>
+      <c r="F156" s="33">
+        <f t="shared" si="6"/>
+        <v>0.19565217391304349</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>46</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>430</v>
+      </c>
+      <c r="D157" t="s">
+        <v>421</v>
+      </c>
+      <c r="E157" t="s">
+        <v>442</v>
+      </c>
+      <c r="F157" s="33">
+        <f t="shared" si="6"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>46</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>424</v>
+      </c>
+      <c r="D158" t="s">
+        <v>433</v>
+      </c>
+      <c r="E158" t="s">
+        <v>427</v>
+      </c>
+      <c r="F158" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>45</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>434</v>
+      </c>
+      <c r="D159" t="s">
+        <v>446</v>
+      </c>
+      <c r="E159" t="s">
+        <v>444</v>
+      </c>
+      <c r="F159" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>45</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>437</v>
+      </c>
+      <c r="D160" t="s">
+        <v>449</v>
+      </c>
+      <c r="E160" t="s">
+        <v>422</v>
+      </c>
+      <c r="F160" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>45</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>437</v>
+      </c>
+      <c r="D161" t="s">
+        <v>449</v>
+      </c>
+      <c r="E161" t="s">
+        <v>423</v>
+      </c>
+      <c r="F161" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>44</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>428</v>
+      </c>
+      <c r="D162" t="s">
+        <v>438</v>
+      </c>
+      <c r="E162" t="s">
+        <v>440</v>
+      </c>
+      <c r="F162" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>44</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>428</v>
+      </c>
+      <c r="D163" t="s">
+        <v>438</v>
+      </c>
+      <c r="E163" t="s">
+        <v>439</v>
+      </c>
+      <c r="F163" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>44</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>428</v>
+      </c>
+      <c r="D164" t="s">
+        <v>438</v>
+      </c>
+      <c r="E164" t="s">
+        <v>441</v>
+      </c>
+      <c r="F164" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>44</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>424</v>
+      </c>
+      <c r="D165" t="s">
+        <v>433</v>
+      </c>
+      <c r="E165" t="s">
+        <v>422</v>
+      </c>
+      <c r="F165" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>44</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>424</v>
+      </c>
+      <c r="D166" t="s">
+        <v>433</v>
+      </c>
+      <c r="E166" t="s">
+        <v>423</v>
+      </c>
+      <c r="F166" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>41</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>424</v>
+      </c>
+      <c r="D167" t="s">
+        <v>438</v>
+      </c>
+      <c r="E167" t="s">
+        <v>427</v>
+      </c>
+      <c r="F167" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>38</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>447</v>
+      </c>
+      <c r="D168" t="s">
+        <v>446</v>
+      </c>
+      <c r="E168" t="s">
+        <v>426</v>
+      </c>
+      <c r="F168" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>38</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>447</v>
+      </c>
+      <c r="D169" t="s">
+        <v>446</v>
+      </c>
+      <c r="E169" t="s">
+        <v>427</v>
+      </c>
+      <c r="F169" s="33">
+        <f t="shared" si="6"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>35</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>430</v>
+      </c>
+      <c r="D170" t="s">
+        <v>433</v>
+      </c>
+      <c r="E170" t="s">
+        <v>425</v>
+      </c>
+      <c r="F170" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>33</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>424</v>
+      </c>
+      <c r="D171" t="s">
+        <v>438</v>
+      </c>
+      <c r="E171" t="s">
+        <v>422</v>
+      </c>
+      <c r="F171" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>33</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>424</v>
+      </c>
+      <c r="D172" t="s">
+        <v>438</v>
+      </c>
+      <c r="E172" t="s">
+        <v>423</v>
+      </c>
+      <c r="F172" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>30</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>437</v>
+      </c>
+      <c r="D173" t="s">
+        <v>450</v>
+      </c>
+      <c r="E173" t="s">
+        <v>422</v>
+      </c>
+      <c r="F173" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>30</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>437</v>
+      </c>
+      <c r="D174" t="s">
+        <v>450</v>
+      </c>
+      <c r="E174" t="s">
+        <v>423</v>
+      </c>
+      <c r="F174" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>29</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>424</v>
+      </c>
+      <c r="D175" t="s">
+        <v>421</v>
+      </c>
+      <c r="E175" t="s">
+        <v>445</v>
+      </c>
+      <c r="F175" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>28</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>424</v>
+      </c>
+      <c r="D176" t="s">
+        <v>448</v>
+      </c>
+      <c r="E176" t="s">
+        <v>436</v>
+      </c>
+      <c r="F176" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>25</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>430</v>
+      </c>
+      <c r="D177" t="s">
+        <v>438</v>
+      </c>
+      <c r="E177" t="s">
+        <v>445</v>
+      </c>
+      <c r="F177" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>24</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>437</v>
+      </c>
+      <c r="D178" t="s">
+        <v>449</v>
+      </c>
+      <c r="E178" t="s">
+        <v>426</v>
+      </c>
+      <c r="F178" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>24</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>437</v>
+      </c>
+      <c r="D179" t="s">
+        <v>449</v>
+      </c>
+      <c r="E179" t="s">
+        <v>427</v>
+      </c>
+      <c r="F179" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>22</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>434</v>
+      </c>
+      <c r="D180" t="s">
+        <v>446</v>
+      </c>
+      <c r="E180" t="s">
+        <v>445</v>
+      </c>
+      <c r="F180" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>20</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>430</v>
+      </c>
+      <c r="D181" t="s">
+        <v>438</v>
+      </c>
+      <c r="E181" t="s">
+        <v>427</v>
+      </c>
+      <c r="F181" s="33">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>16</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>431</v>
+      </c>
+      <c r="D182" t="s">
+        <v>438</v>
+      </c>
+      <c r="E182" t="s">
+        <v>439</v>
+      </c>
+      <c r="F182" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>16</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>420</v>
+      </c>
+      <c r="D183" t="s">
+        <v>438</v>
+      </c>
+      <c r="E183" t="s">
+        <v>441</v>
+      </c>
+      <c r="F183" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>16</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>431</v>
+      </c>
+      <c r="D184" t="s">
+        <v>438</v>
+      </c>
+      <c r="E184" t="s">
+        <v>444</v>
+      </c>
+      <c r="F184" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>16</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>420</v>
+      </c>
+      <c r="D185" t="s">
+        <v>438</v>
+      </c>
+      <c r="E185" t="s">
+        <v>440</v>
+      </c>
+      <c r="F185" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>16</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>420</v>
+      </c>
+      <c r="D186" t="s">
+        <v>438</v>
+      </c>
+      <c r="E186" t="s">
+        <v>439</v>
+      </c>
+      <c r="F186" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>16</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>431</v>
+      </c>
+      <c r="D187" t="s">
+        <v>438</v>
+      </c>
+      <c r="E187" t="s">
+        <v>440</v>
+      </c>
+      <c r="F187" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>16</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>431</v>
+      </c>
+      <c r="D188" t="s">
+        <v>438</v>
+      </c>
+      <c r="E188" t="s">
+        <v>443</v>
+      </c>
+      <c r="F188" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>16</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>431</v>
+      </c>
+      <c r="D189" t="s">
+        <v>438</v>
+      </c>
+      <c r="E189" t="s">
+        <v>441</v>
+      </c>
+      <c r="F189" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>16</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>437</v>
+      </c>
+      <c r="D190" t="s">
+        <v>450</v>
+      </c>
+      <c r="E190" t="s">
+        <v>427</v>
+      </c>
+      <c r="F190" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>16</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>437</v>
+      </c>
+      <c r="D191" t="s">
+        <v>450</v>
+      </c>
+      <c r="E191" t="s">
+        <v>426</v>
+      </c>
+      <c r="F191" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>15</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>430</v>
+      </c>
+      <c r="D192" t="s">
+        <v>433</v>
+      </c>
+      <c r="E192" t="s">
+        <v>436</v>
+      </c>
+      <c r="F192" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>15</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>430</v>
+      </c>
+      <c r="D193" t="s">
+        <v>438</v>
+      </c>
+      <c r="E193" t="s">
+        <v>426</v>
+      </c>
+      <c r="F193" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>13</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>430</v>
+      </c>
+      <c r="D194" t="s">
+        <v>421</v>
+      </c>
+      <c r="E194" t="s">
+        <v>443</v>
+      </c>
+      <c r="F194" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>12</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>428</v>
+      </c>
+      <c r="D195" t="s">
+        <v>438</v>
+      </c>
+      <c r="E195" t="s">
+        <v>444</v>
+      </c>
+      <c r="F195" s="33">
+        <f t="shared" ref="F195:F229" si="9">B195/A195</f>
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G229" si="10">IF(OR(F195&gt;$M$1, A195&lt;$O$1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H229" si="11">G195*A195</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>12</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>424</v>
+      </c>
+      <c r="D196" t="s">
+        <v>449</v>
+      </c>
+      <c r="E196" t="s">
+        <v>425</v>
+      </c>
+      <c r="F196" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>12</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>424</v>
+      </c>
+      <c r="D197" t="s">
+        <v>450</v>
+      </c>
+      <c r="E197" t="s">
+        <v>425</v>
+      </c>
+      <c r="F197" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>428</v>
+      </c>
+      <c r="D198" t="s">
+        <v>448</v>
+      </c>
+      <c r="E198" t="s">
+        <v>440</v>
+      </c>
+      <c r="F198" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>428</v>
+      </c>
+      <c r="D199" t="s">
+        <v>448</v>
+      </c>
+      <c r="E199" t="s">
+        <v>439</v>
+      </c>
+      <c r="F199" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>428</v>
+      </c>
+      <c r="D200" t="s">
+        <v>448</v>
+      </c>
+      <c r="E200" t="s">
+        <v>441</v>
+      </c>
+      <c r="F200" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>428</v>
+      </c>
+      <c r="D201" t="s">
+        <v>448</v>
+      </c>
+      <c r="E201" t="s">
+        <v>444</v>
+      </c>
+      <c r="F201" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>7</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>424</v>
+      </c>
+      <c r="D202" t="s">
+        <v>446</v>
+      </c>
+      <c r="E202" t="s">
+        <v>445</v>
+      </c>
+      <c r="F202" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>6</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>424</v>
+      </c>
+      <c r="D203" t="s">
+        <v>449</v>
+      </c>
+      <c r="E203" t="s">
+        <v>436</v>
+      </c>
+      <c r="F203" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>431</v>
+      </c>
+      <c r="D204" t="s">
+        <v>433</v>
+      </c>
+      <c r="E204" t="s">
+        <v>423</v>
+      </c>
+      <c r="F204" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>431</v>
+      </c>
+      <c r="D205" t="s">
+        <v>433</v>
+      </c>
+      <c r="E205" t="s">
+        <v>445</v>
+      </c>
+      <c r="F205" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>431</v>
+      </c>
+      <c r="D206" t="s">
+        <v>433</v>
+      </c>
+      <c r="E206" t="s">
+        <v>427</v>
+      </c>
+      <c r="F206" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>431</v>
+      </c>
+      <c r="D207" t="s">
+        <v>433</v>
+      </c>
+      <c r="E207" t="s">
+        <v>426</v>
+      </c>
+      <c r="F207" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>5</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>431</v>
+      </c>
+      <c r="D208" t="s">
+        <v>433</v>
+      </c>
+      <c r="E208" t="s">
+        <v>422</v>
+      </c>
+      <c r="F208" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>5</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>420</v>
+      </c>
+      <c r="D209" t="s">
+        <v>433</v>
+      </c>
+      <c r="E209" t="s">
+        <v>443</v>
+      </c>
+      <c r="F209" s="33">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>420</v>
+      </c>
+      <c r="D210" t="s">
+        <v>433</v>
+      </c>
+      <c r="E210" t="s">
+        <v>440</v>
+      </c>
+      <c r="F210" s="33">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>5</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>420</v>
+      </c>
+      <c r="D211" t="s">
+        <v>433</v>
+      </c>
+      <c r="E211" t="s">
+        <v>442</v>
+      </c>
+      <c r="F211" s="33">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>5</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>420</v>
+      </c>
+      <c r="D212" t="s">
+        <v>433</v>
+      </c>
+      <c r="E212" t="s">
+        <v>439</v>
+      </c>
+      <c r="F212" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>420</v>
+      </c>
+      <c r="D213" t="s">
+        <v>433</v>
+      </c>
+      <c r="E213" t="s">
+        <v>441</v>
+      </c>
+      <c r="F213" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>424</v>
+      </c>
+      <c r="D214" t="s">
+        <v>433</v>
+      </c>
+      <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" s="33">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>424</v>
+      </c>
+      <c r="D215" t="s">
+        <v>448</v>
+      </c>
+      <c r="E215" t="s">
+        <v>427</v>
+      </c>
+      <c r="F215" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>424</v>
+      </c>
+      <c r="D216" t="s">
+        <v>450</v>
+      </c>
+      <c r="E216" t="s">
+        <v>436</v>
+      </c>
+      <c r="F216" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>430</v>
+      </c>
+      <c r="D217" t="s">
+        <v>438</v>
+      </c>
+      <c r="E217" t="s">
+        <v>440</v>
+      </c>
+      <c r="F217" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>428</v>
+      </c>
+      <c r="D218" t="s">
+        <v>449</v>
+      </c>
+      <c r="E218" t="s">
+        <v>441</v>
+      </c>
+      <c r="F218" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>3</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>428</v>
+      </c>
+      <c r="D219" t="s">
+        <v>449</v>
+      </c>
+      <c r="E219" t="s">
+        <v>442</v>
+      </c>
+      <c r="F219" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>428</v>
+      </c>
+      <c r="D220" t="s">
+        <v>449</v>
+      </c>
+      <c r="E220" t="s">
+        <v>439</v>
+      </c>
+      <c r="F220" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>428</v>
+      </c>
+      <c r="D221" t="s">
+        <v>449</v>
+      </c>
+      <c r="E221" t="s">
+        <v>443</v>
+      </c>
+      <c r="F221" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>424</v>
+      </c>
+      <c r="D222" t="s">
+        <v>448</v>
+      </c>
+      <c r="E222" t="s">
+        <v>426</v>
+      </c>
+      <c r="F222" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>430</v>
+      </c>
+      <c r="D223" t="s">
+        <v>438</v>
+      </c>
+      <c r="E223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>428</v>
+      </c>
+      <c r="D224" t="s">
+        <v>450</v>
+      </c>
+      <c r="E224" t="s">
+        <v>441</v>
+      </c>
+      <c r="F224" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>428</v>
+      </c>
+      <c r="D225" t="s">
+        <v>450</v>
+      </c>
+      <c r="E225" t="s">
+        <v>439</v>
+      </c>
+      <c r="F225" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>424</v>
+      </c>
+      <c r="D226" t="s">
+        <v>448</v>
+      </c>
+      <c r="E226" t="s">
+        <v>422</v>
+      </c>
+      <c r="F226" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>424</v>
+      </c>
+      <c r="D227" t="s">
+        <v>448</v>
+      </c>
+      <c r="E227" t="s">
+        <v>423</v>
+      </c>
+      <c r="F227" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>430</v>
+      </c>
+      <c r="D228" t="s">
+        <v>433</v>
+      </c>
+      <c r="E228" t="s">
+        <v>426</v>
+      </c>
+      <c r="F228" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>424</v>
+      </c>
+      <c r="D229" t="s">
+        <v>448</v>
+      </c>
+      <c r="E229" t="s">
+        <v>445</v>
+      </c>
+      <c r="F229" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D1A10E-5369-450E-B926-68685F4F5C9B}">
   <dimension ref="V245:AF447"/>
   <sheetViews>
@@ -13335,7 +22888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B180E60-41BE-41A1-A6BA-C30F23AD950B}">
   <dimension ref="A1:AE133"/>
   <sheetViews>
@@ -26008,7 +35561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDDBC07-E8BC-405A-BB7A-759EA912FD5C}">
   <dimension ref="A1:AC130"/>
   <sheetViews>
@@ -37609,7 +47162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D57459-27FD-4CD3-81F6-B9648C8FC5A2}">
   <dimension ref="A1:AE133"/>
   <sheetViews>
@@ -50278,7 +59831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC670CAF-E7CA-46E0-B820-1DD7551F2FCE}">
   <dimension ref="A1:AE133"/>
   <sheetViews>
